--- a/ressources/Classeur2.xlsx
+++ b/ressources/Classeur2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -258,12 +258,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -306,6 +306,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -382,7 +383,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -431,6 +432,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -506,10 +508,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -554,6 +558,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -624,11 +629,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="1576716144"/>
-        <c:axId val="1576834080"/>
+        <c:axId val="-1075523888"/>
+        <c:axId val="-1075521056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1576716144"/>
+        <c:axId val="-1075523888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,7 +675,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -685,7 +690,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576834080"/>
+        <c:crossAx val="-1075521056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -693,7 +698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1576834080"/>
+        <c:axId val="-1075521056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +711,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -719,7 +724,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="2400"/>
                   <a:t>Ratio de compression</a:t>
                 </a:r>
               </a:p>
@@ -729,8 +734,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0147733837739556"/>
-              <c:y val="0.268512751204607"/>
+              <c:x val="0.0130468249540223"/>
+              <c:y val="0.204452583986722"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -746,7 +751,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -778,7 +783,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -793,7 +798,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576716144"/>
+        <c:crossAx val="-1075523888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -805,37 +810,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1164,11 +1138,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="1683041392"/>
-        <c:axId val="1683043712"/>
+        <c:axId val="-1460383056"/>
+        <c:axId val="-978975568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1683041392"/>
+        <c:axId val="-1460383056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,7 +1199,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1683043712"/>
+        <c:crossAx val="-978975568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1233,7 +1207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1683043712"/>
+        <c:axId val="-978975568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1299,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1683041392"/>
+        <c:crossAx val="-1460383056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,11 +1554,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="1660251056"/>
-        <c:axId val="1660253376"/>
+        <c:axId val="-1005295904"/>
+        <c:axId val="-1005320224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1660251056"/>
+        <c:axId val="-1005295904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1615,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660253376"/>
+        <c:crossAx val="-1005320224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1649,7 +1623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1660253376"/>
+        <c:axId val="-1005320224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1720,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660251056"/>
+        <c:crossAx val="-1005295904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1827,9 +1801,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1875,6 +1847,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1951,7 +1924,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -2000,6 +1973,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2075,10 +2049,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2123,6 +2099,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2193,11 +2170,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="1657241264"/>
-        <c:axId val="1657244096"/>
+        <c:axId val="-1075536560"/>
+        <c:axId val="-1075558240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1657241264"/>
+        <c:axId val="-1075536560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,7 +2216,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2254,7 +2231,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657244096"/>
+        <c:crossAx val="-1075558240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2262,7 +2239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1657244096"/>
+        <c:axId val="-1075558240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2252,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2288,7 +2265,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="2400"/>
                   <a:t>Nombre de bits par noeuds</a:t>
                 </a:r>
               </a:p>
@@ -2298,8 +2275,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0144340091250276"/>
-              <c:y val="0.204628686120117"/>
+              <c:x val="0.0144340692685286"/>
+              <c:y val="0.1431768584836"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2315,7 +2292,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2347,7 +2324,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2362,7 +2339,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657241264"/>
+        <c:crossAx val="-1075536560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2374,37 +2351,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2484,8 +2430,132 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil2!$A$21:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chocWiki</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>netscience</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>caida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>189.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15108.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD7C-4AB9-A817-F864A8F01586}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GnF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
               <a:schemeClr val="bg1">
-                <a:lumMod val="95000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -2572,130 +2642,6 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil2!$B$21:$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>189.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.87</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15108.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD7C-4AB9-A817-F864A8F01586}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil2!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GnF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil2!$A$21:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chocWiki</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>netscience</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>caida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Feuil2!$C$21:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
@@ -2734,10 +2680,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="bg1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2853,11 +2801,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="1657280848"/>
-        <c:axId val="1576989376"/>
+        <c:axId val="-1075595904"/>
+        <c:axId val="-1075593072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1657280848"/>
+        <c:axId val="-1075595904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2899,7 +2847,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2914,7 +2862,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576989376"/>
+        <c:crossAx val="-1075593072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2922,7 +2870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1576989376"/>
+        <c:axId val="-1075593072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,7 +2883,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2948,7 +2896,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="2400"/>
                   <a:t>Temps d'execution (s)</a:t>
                 </a:r>
               </a:p>
@@ -2958,8 +2906,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.0427766238347589"/>
-              <c:y val="0.29797504631774"/>
+              <c:x val="0.0242460995434362"/>
+              <c:y val="0.216762025680467"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2975,7 +2923,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3007,7 +2955,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3022,7 +2970,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657280848"/>
+        <c:crossAx val="-1075595904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3050,7 +2998,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3158,1546 +3106,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil3!$B$4:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chocWiki</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>netscience</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>caida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$C$4:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.98876155813496</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.008409655054352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.995102892065629</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A1F-4685-9B90-7A2D53DF4853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOP(1/3)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil3!$B$4:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chocWiki</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>netscience</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>caida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$D$4:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.992463200506842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.999547508113038</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99642472425438</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5A1F-4685-9B90-7A2D53DF4853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOP(1/4)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil3!$B$4:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chocWiki</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>netscience</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>caida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$E$4:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.994287551313121</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.996405539697642</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.997307898374817</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5A1F-4685-9B90-7A2D53DF4853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Plain</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="wdUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil3!$B$4:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chocWiki</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>netscience</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>caida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$F$4:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.0592031893501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.229048579476302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.034235346572007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A1F-4685-9B90-7A2D53DF4853}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="50"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1575775200"/>
-        <c:axId val="1660215696"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1575775200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1660215696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1660215696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Ratio de compression</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1575775200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200"/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOP(1/2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil3!$B$21:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chocWiki</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>netscience</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>caida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$C$21:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>42.06620689655172</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.99102902374671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.23059490084985</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B93-408A-A9E1-0E515AAA325C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$D$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOP(1/3)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil3!$B$21:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chocWiki</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>netscience</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>caida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$D$21:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>41.90931034482758</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.31899736147757</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.15467422096317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0B93-408A-A9E1-0E515AAA325C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$E$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOP(1/4)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil3!$B$21:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chocWiki</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>netscience</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>caida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$E$21:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>41.83241379310345</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.43667546174142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.10406043437205</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0B93-408A-A9E1-0E515AAA325C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$F$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Plain</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="wdUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil3!$B$21:$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>chocWiki</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>netscience</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>caida</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$F$21:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>39.26862068965517</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.35039577836411</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>55.06515580736543</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0B93-408A-A9E1-0E515AAA325C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="50"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1657487936"/>
-        <c:axId val="1657490256"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1657487936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1657490256"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1657490256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Nombre de bits par noeud</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1657487936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200"/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11522142049317"/>
-          <c:y val="0.0513918154596873"/>
-          <c:w val="0.729426047353837"/>
-          <c:h val="0.862200499585439"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$C$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TOP(1/2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4743,7 +3152,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil3!$B$36:$B$38</c:f>
+              <c:f>Feuil3!$B$4:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4760,25 +3169,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil3!$C$36:$C$38</c:f>
+              <c:f>Feuil3!$C$4:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.92</c:v>
+                  <c:v>0.98876155813496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>1.008409655054352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.54</c:v>
+                  <c:v>0.995102892065629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FB1-4CAA-A9CA-ECB8DE8FAFB8}"/>
+              <c16:uniqueId val="{00000000-5A1F-4685-9B90-7A2D53DF4853}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4787,7 +3196,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil3!$D$35</c:f>
+              <c:f>Feuil3!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4821,7 +3230,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4867,7 +3276,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil3!$B$36:$B$38</c:f>
+              <c:f>Feuil3!$B$4:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4884,25 +3293,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil3!$D$36:$D$38</c:f>
+              <c:f>Feuil3!$D$4:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.52</c:v>
+                  <c:v>0.992463200506842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31</c:v>
+                  <c:v>0.999547508113038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.98</c:v>
+                  <c:v>0.99642472425438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FB1-4CAA-A9CA-ECB8DE8FAFB8}"/>
+              <c16:uniqueId val="{00000001-5A1F-4685-9B90-7A2D53DF4853}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4911,7 +3320,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil3!$E$35</c:f>
+              <c:f>Feuil3!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4943,7 +3352,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4989,7 +3398,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil3!$B$36:$B$38</c:f>
+              <c:f>Feuil3!$B$4:$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5006,25 +3415,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil3!$E$36:$E$38</c:f>
+              <c:f>Feuil3!$E$4:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.45</c:v>
+                  <c:v>0.994287551313121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28</c:v>
+                  <c:v>0.996405539697642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.174</c:v>
+                  <c:v>0.997307898374817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8FB1-4CAA-A9CA-ECB8DE8FAFB8}"/>
+              <c16:uniqueId val="{00000002-5A1F-4685-9B90-7A2D53DF4853}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5033,7 +3442,751 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil3!$F$35</c:f>
+              <c:f>Feuil3!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$4:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chocWiki</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>netscience</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>caida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$F$4:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0592031893501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.229048579476302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.034235346572007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A1F-4685-9B90-7A2D53DF4853}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-979140688"/>
+        <c:axId val="-1460629104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-979140688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1460629104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1460629104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="2400"/>
+                  <a:t>Ratio de compression</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00661106259817363"/>
+              <c:y val="0.200585657622029"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-979140688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP(1/2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$21:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chocWiki</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>netscience</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>caida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$C$21:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>42.06620689655172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.99102902374671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.23059490084985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B93-408A-A9E1-0E515AAA325C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP(1/3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$21:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chocWiki</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>netscience</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>caida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$D$21:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.90931034482758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.31899736147757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.15467422096317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0B93-408A-A9E1-0E515AAA325C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP(1/4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$21:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chocWiki</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>netscience</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>caida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$E$21:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.83241379310345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.43667546174142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.10406043437205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0B93-408A-A9E1-0E515AAA325C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$F$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5116,7 +4269,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil3!$B$36:$B$38</c:f>
+              <c:f>Feuil3!$B$21:$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5133,25 +4286,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil3!$F$36:$F$38</c:f>
+              <c:f>Feuil3!$F$21:$F$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.9</c:v>
+                  <c:v>39.26862068965517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66</c:v>
+                  <c:v>30.35039577836411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.51</c:v>
+                  <c:v>55.06515580736543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8FB1-4CAA-A9CA-ECB8DE8FAFB8}"/>
+              <c16:uniqueId val="{00000003-0B93-408A-A9E1-0E515AAA325C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5166,11 +4319,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="1660227952"/>
-        <c:axId val="1660417936"/>
+        <c:axId val="-1045617024"/>
+        <c:axId val="-1005145040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1660227952"/>
+        <c:axId val="-1045617024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,7 +4365,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5227,7 +4380,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660417936"/>
+        <c:crossAx val="-1005145040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5235,7 +4388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1660417936"/>
+        <c:axId val="-1005145040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5248,7 +4401,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5261,18 +4414,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Temps</a:t>
+                  <a:rPr lang="fr-FR" sz="2400"/>
+                  <a:t>Nombre de bits par noeud</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> d'exécution (s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.012940016274363"/>
+              <c:y val="0.154923398685264"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5286,7 +4441,759 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1045617024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11522142049317"/>
+          <c:y val="0.0513918154596873"/>
+          <c:w val="0.701672706263514"/>
+          <c:h val="0.862200489682547"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP(1/2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$36:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chocWiki</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>netscience</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>caida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$C$36:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FB1-4CAA-A9CA-ECB8DE8FAFB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP(1/3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$36:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chocWiki</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>netscience</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>caida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$D$36:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FB1-4CAA-A9CA-ECB8DE8FAFB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP(1/4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$36:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chocWiki</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>netscience</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>caida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$E$36:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104.174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FB1-4CAA-A9CA-ECB8DE8FAFB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil3!$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$36:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>chocWiki</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>netscience</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>caida</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$F$36:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FB1-4CAA-A9CA-ECB8DE8FAFB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-978826112"/>
+        <c:axId val="-978824336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-978826112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-978824336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-978824336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="2400"/>
+                  <a:t>Temps d'exécution (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00636101030663281"/>
+              <c:y val="0.210364580362869"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5318,7 +5225,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5333,7 +5240,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1660227952"/>
+        <c:crossAx val="-978826112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5361,7 +5268,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5396,7 +5303,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="fr-FR"/>
     </a:p>
@@ -5937,11 +5844,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="1657527744"/>
-        <c:axId val="1657530576"/>
+        <c:axId val="-1045139808"/>
+        <c:axId val="-1045137488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1657527744"/>
+        <c:axId val="-1045139808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5983,7 +5890,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="95000"/>
@@ -5998,7 +5905,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657530576"/>
+        <c:crossAx val="-1045137488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6006,7 +5913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1657530576"/>
+        <c:axId val="-1045137488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6019,7 +5926,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="95000"/>
@@ -6032,13 +5939,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="2400"/>
                   <a:t>Ratio de compression</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00719870479996315"/>
+              <c:y val="0.181083388672801"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6052,7 +5966,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="95000"/>
@@ -6084,7 +5998,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="95000"/>
@@ -6099,7 +6013,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1657527744"/>
+        <c:crossAx val="-1045139808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6583,11 +6497,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="1576918592"/>
-        <c:axId val="1576921424"/>
+        <c:axId val="-1464158880"/>
+        <c:axId val="-978972784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1576918592"/>
+        <c:axId val="-1464158880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6641,7 +6555,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576921424"/>
+        <c:crossAx val="-978972784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6649,7 +6563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1576921424"/>
+        <c:axId val="-978972784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6733,7 +6647,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576918592"/>
+        <c:crossAx val="-1464158880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7220,11 +7134,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="-27"/>
-        <c:axId val="1683026688"/>
-        <c:axId val="1683029520"/>
+        <c:axId val="-1001816128"/>
+        <c:axId val="-1001813296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1683026688"/>
+        <c:axId val="-1001816128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7281,7 +7195,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1683029520"/>
+        <c:crossAx val="-1001813296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7289,7 +7203,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1683029520"/>
+        <c:axId val="-1001813296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7382,7 +7296,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1683026688"/>
+        <c:crossAx val="-1001816128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13441,9 +13355,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>580737</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>29326</xdr:rowOff>
+      <xdr:colOff>286775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>102419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -13456,7 +13370,7 @@
         <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CCA410F-966B-445C-9F04-341B83DEDD0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CCA410F-966B-445C-9F04-341B83DEDD0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13477,22 +13391,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>276398</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>15679</xdr:rowOff>
+      <xdr:colOff>276397</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>360617</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>143388</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>67426</xdr:rowOff>
+      <xdr:rowOff>67427</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CC6D0B-06EC-43AE-AA36-797F0FA5E2A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87CC6D0B-06EC-43AE-AA36-797F0FA5E2A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13518,17 +13432,17 @@
       <xdr:rowOff>60614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>679182</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>187267</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>783951</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Graphique 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27260D4B-7354-45E8-91E6-7E27558AF4BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27260D4B-7354-45E8-91E6-7E27558AF4BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13555,21 +13469,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>103371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>189551</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C4772D-0928-4502-9450-8C2E0B91C5CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94C4772D-0928-4502-9450-8C2E0B91C5CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13591,21 +13505,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>103372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>604520</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>170180</xdr:rowOff>
+      <xdr:colOff>797442</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>151641</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92076EED-DDF3-451E-8753-399871949A32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92076EED-DDF3-451E-8753-399871949A32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13625,23 +13539,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>96519</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165099</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584086</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>184053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>59069</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>44301</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185365</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63258</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A23596-CE9C-45FA-98CB-2F63575CEDBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67A23596-CE9C-45FA-98CB-2F63575CEDBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13666,23 +13580,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>645442</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>21731</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>93133</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>512092</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90311</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5914F8-DA85-4714-9EA7-DAC898EC95C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5A5914F8-DA85-4714-9EA7-DAC898EC95C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13718,7 +13632,7 @@
         <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E431647B-5B71-4219-953D-F5A8D96D6DF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E431647B-5B71-4219-953D-F5A8D96D6DF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13740,21 +13654,21 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>483870</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DAD0C3-EE68-4956-B640-3A52523A8D2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6DAD0C3-EE68-4956-B640-3A52523A8D2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14134,7 +14048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L41" sqref="L41:L43"/>
     </sheetView>
   </sheetViews>
@@ -14916,23 +14830,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14942,8 +14856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="81" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15165,8 +15079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="86" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15376,13 +15290,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
